--- a/CIS/ansible/final/cis/CIS_RULES_with_playbook_comment2.xlsx
+++ b/CIS/ansible/final/cis/CIS_RULES_with_playbook_comment2.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahe\Downloads\BSW\ansible\final\cis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahe\Downloads\BSW\projectcis\CIS\ansible\final\cis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E3C49DE-51F4-4CE3-A349-B8DB8540AF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ECF4D9-9F46-43EE-97C5-070088B9061C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A78F8873-882E-4DAF-84F8-439D68AAC4A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="L2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="211">
   <si>
     <t>2.4 Ensure unused symbolic links are removed</t>
   </si>
@@ -504,9 +505,6 @@
     <t>Rollback is alt_disk</t>
   </si>
   <si>
-    <t>rollback mksysb</t>
-  </si>
-  <si>
     <t>rollback alt_disk or manual</t>
   </si>
   <si>
@@ -580,6 +578,87 @@
   </si>
   <si>
     <t>4.7.1.6(YES)</t>
+  </si>
+  <si>
+    <t>4.7.1.7(YES)</t>
+  </si>
+  <si>
+    <t>block syntax issue</t>
+  </si>
+  <si>
+    <t>(YES)4.7.4.x</t>
+  </si>
+  <si>
+    <t>YES(4.8.x)</t>
+  </si>
+  <si>
+    <t>Review pre_check</t>
+  </si>
+  <si>
+    <t>YES(4.9.x)</t>
+  </si>
+  <si>
+    <t>YES(5.1.x)</t>
+  </si>
+  <si>
+    <t>Manual intervention required</t>
+  </si>
+  <si>
+    <t>rollback mksysb, Need review .Manual intervention required</t>
+  </si>
+  <si>
+    <t>AIX_script</t>
+  </si>
+  <si>
+    <t>description : "4.2.5 Ensure all entries in /etc/hosts.equiv are removed"</t>
+  </si>
+  <si>
+    <t>description : "4.3.2.9 Ensure mrouted is not in use"</t>
+  </si>
+  <si>
+    <t>description : "4.4.1.5 Ensure NFS exports use allow lists"</t>
+  </si>
+  <si>
+    <t>description : "4.4.1.7 Ensure secure RPC authentication is enabled"</t>
+  </si>
+  <si>
+    <t>description : "4.4.2.1 Ensure File System Level encryption is enabled"</t>
+  </si>
+  <si>
+    <t>description : "4.7.3.15 Ensure sshd PermitRootLogin is disabled"</t>
+  </si>
+  <si>
+    <t>description : "7.1.1 Ensure /audit filesystem has been created and configured"</t>
+  </si>
+  <si>
+    <t>description : "7.1.2 Ensure Audit configuration defines audit classes"</t>
+  </si>
+  <si>
+    <t>description : "7.1.3 Ensure Audit creates audit processing commands"</t>
+  </si>
+  <si>
+    <t>description : "7.1.4 Ensure Audit bin(ary) audit event collection is configured"</t>
+  </si>
+  <si>
+    <t>description : "7.2.3 Ensure syslog is not configured to receive logs from a remote client"</t>
+  </si>
+  <si>
+    <t>YES)4.4.3.1</t>
+  </si>
+  <si>
+    <t>Check is ipsec is installed</t>
+  </si>
+  <si>
+    <t>YES(2.4)</t>
+  </si>
+  <si>
+    <t>YES(3.7)</t>
+  </si>
+  <si>
+    <t>Manual Intervention</t>
+  </si>
+  <si>
+    <t>YES(4.1.2.1)</t>
   </si>
 </sst>
 </file>
@@ -652,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -660,6 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A95FC29-CCDC-4096-81D4-2F756E9CFA27}">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -988,7 +1068,7 @@
     <col min="8" max="8" width="30.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
@@ -996,35 +1076,50 @@
         <v>154</v>
       </c>
       <c r="E1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" t="s">
         <v>161</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>162</v>
       </c>
-      <c r="G1" t="s">
-        <v>163</v>
-      </c>
       <c r="H1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="E2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1032,16 +1127,16 @@
         <v>155</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1049,16 +1144,16 @@
         <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1066,16 +1161,16 @@
         <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1083,16 +1178,16 @@
         <v>155</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1100,16 +1195,16 @@
         <v>155</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1117,16 +1212,16 @@
         <v>155</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1134,16 +1229,16 @@
         <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1151,16 +1246,16 @@
         <v>155</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1168,16 +1263,16 @@
         <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1185,16 +1280,16 @@
         <v>155</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G13" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1202,16 +1297,16 @@
         <v>155</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1219,16 +1314,16 @@
         <v>155</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1236,10 +1331,10 @@
         <v>155</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
         <v>155</v>
@@ -1253,10 +1348,10 @@
         <v>155</v>
       </c>
       <c r="E17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
         <v>155</v>
@@ -1272,6 +1367,9 @@
       <c r="D18" t="s">
         <v>155</v>
       </c>
+      <c r="E18" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
@@ -1283,6 +1381,12 @@
       <c r="D19" t="s">
         <v>155</v>
       </c>
+      <c r="E19" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
@@ -1314,10 +1418,10 @@
         <v>155</v>
       </c>
       <c r="E22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1328,10 +1432,10 @@
         <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -1342,10 +1446,10 @@
         <v>155</v>
       </c>
       <c r="E24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -1356,10 +1460,10 @@
         <v>155</v>
       </c>
       <c r="E25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -1370,10 +1474,10 @@
         <v>155</v>
       </c>
       <c r="E26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -1384,13 +1488,13 @@
         <v>155</v>
       </c>
       <c r="E27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -1433,10 +1537,10 @@
         <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1447,10 +1551,10 @@
         <v>155</v>
       </c>
       <c r="E33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1461,10 +1565,10 @@
         <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1478,7 +1582,7 @@
         <v>157</v>
       </c>
       <c r="F35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1492,7 +1596,7 @@
         <v>157</v>
       </c>
       <c r="F36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -1506,7 +1610,7 @@
         <v>157</v>
       </c>
       <c r="F37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1520,7 +1624,7 @@
         <v>157</v>
       </c>
       <c r="F38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1534,7 +1638,7 @@
         <v>157</v>
       </c>
       <c r="F39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1548,7 +1652,7 @@
         <v>157</v>
       </c>
       <c r="F40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1562,7 +1666,7 @@
         <v>157</v>
       </c>
       <c r="F41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1576,7 +1680,7 @@
         <v>157</v>
       </c>
       <c r="F42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1590,7 +1694,7 @@
         <v>157</v>
       </c>
       <c r="F43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -1601,10 +1705,10 @@
         <v>155</v>
       </c>
       <c r="E44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -1615,10 +1719,10 @@
         <v>155</v>
       </c>
       <c r="E45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -1629,10 +1733,10 @@
         <v>155</v>
       </c>
       <c r="E46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1643,10 +1747,10 @@
         <v>155</v>
       </c>
       <c r="E47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1657,10 +1761,10 @@
         <v>155</v>
       </c>
       <c r="E48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -1671,10 +1775,10 @@
         <v>155</v>
       </c>
       <c r="E49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -1685,10 +1789,10 @@
         <v>155</v>
       </c>
       <c r="E50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -1699,10 +1803,10 @@
         <v>155</v>
       </c>
       <c r="E51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -1713,10 +1817,10 @@
         <v>155</v>
       </c>
       <c r="E52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -1727,10 +1831,10 @@
         <v>155</v>
       </c>
       <c r="E53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -1741,10 +1845,10 @@
         <v>155</v>
       </c>
       <c r="E54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -1755,10 +1859,10 @@
         <v>155</v>
       </c>
       <c r="E55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -1769,10 +1873,10 @@
         <v>155</v>
       </c>
       <c r="E56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -1783,10 +1887,10 @@
         <v>155</v>
       </c>
       <c r="E57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -1797,10 +1901,10 @@
         <v>155</v>
       </c>
       <c r="E58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -1811,10 +1915,10 @@
         <v>155</v>
       </c>
       <c r="E59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -1825,10 +1929,10 @@
         <v>155</v>
       </c>
       <c r="E60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -1839,10 +1943,10 @@
         <v>155</v>
       </c>
       <c r="E61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -1853,10 +1957,10 @@
         <v>155</v>
       </c>
       <c r="E62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -1867,10 +1971,10 @@
         <v>155</v>
       </c>
       <c r="E63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -1881,10 +1985,10 @@
         <v>155</v>
       </c>
       <c r="E64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -1895,10 +1999,10 @@
         <v>155</v>
       </c>
       <c r="E65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -1909,10 +2013,10 @@
         <v>155</v>
       </c>
       <c r="E66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -1923,10 +2027,10 @@
         <v>155</v>
       </c>
       <c r="E67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -1937,10 +2041,10 @@
         <v>155</v>
       </c>
       <c r="E68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -1951,10 +2055,10 @@
         <v>155</v>
       </c>
       <c r="E69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -1965,10 +2069,10 @@
         <v>155</v>
       </c>
       <c r="E70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -1979,10 +2083,10 @@
         <v>155</v>
       </c>
       <c r="E71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -1993,10 +2097,10 @@
         <v>155</v>
       </c>
       <c r="E72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -2007,10 +2111,10 @@
         <v>155</v>
       </c>
       <c r="E73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -2021,10 +2125,10 @@
         <v>155</v>
       </c>
       <c r="E74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -2035,10 +2139,10 @@
         <v>155</v>
       </c>
       <c r="E75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -2049,10 +2153,10 @@
         <v>155</v>
       </c>
       <c r="E76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
@@ -2063,10 +2167,10 @@
         <v>155</v>
       </c>
       <c r="E77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -2077,10 +2181,10 @@
         <v>155</v>
       </c>
       <c r="E78" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F78" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -2091,10 +2195,10 @@
         <v>155</v>
       </c>
       <c r="E79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -2104,6 +2208,12 @@
       <c r="C80" t="s">
         <v>155</v>
       </c>
+      <c r="E80" t="s">
+        <v>205</v>
+      </c>
+      <c r="F80" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
@@ -2113,10 +2223,10 @@
         <v>155</v>
       </c>
       <c r="E81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -2127,10 +2237,10 @@
         <v>155</v>
       </c>
       <c r="E82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -2141,10 +2251,10 @@
         <v>155</v>
       </c>
       <c r="E83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -2155,10 +2265,10 @@
         <v>155</v>
       </c>
       <c r="E84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -2169,10 +2279,10 @@
         <v>155</v>
       </c>
       <c r="E85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -2183,10 +2293,10 @@
         <v>155</v>
       </c>
       <c r="E86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -2197,10 +2307,10 @@
         <v>155</v>
       </c>
       <c r="E87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -2211,10 +2321,10 @@
         <v>155</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -2225,10 +2335,10 @@
         <v>155</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F89" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -2239,10 +2349,10 @@
         <v>155</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -2253,10 +2363,10 @@
         <v>155</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -2267,10 +2377,10 @@
         <v>155</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -2279,10 +2389,10 @@
         <v>155</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -2293,10 +2403,10 @@
         <v>155</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -2307,10 +2417,10 @@
         <v>155</v>
       </c>
       <c r="E95" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F95" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -2321,10 +2431,10 @@
         <v>155</v>
       </c>
       <c r="E96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
@@ -2335,10 +2445,10 @@
         <v>155</v>
       </c>
       <c r="E97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
@@ -2349,10 +2459,10 @@
         <v>155</v>
       </c>
       <c r="E98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
@@ -2362,6 +2472,9 @@
       <c r="C99" t="s">
         <v>155</v>
       </c>
+      <c r="H99" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
@@ -2380,13 +2493,13 @@
         <v>155</v>
       </c>
       <c r="E101" t="s">
+        <v>180</v>
+      </c>
+      <c r="F101" t="s">
+        <v>180</v>
+      </c>
+      <c r="H101" t="s">
         <v>181</v>
-      </c>
-      <c r="F101" t="s">
-        <v>181</v>
-      </c>
-      <c r="H101" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
@@ -2398,13 +2511,13 @@
         <v>155</v>
       </c>
       <c r="E102" t="s">
+        <v>180</v>
+      </c>
+      <c r="F102" t="s">
+        <v>180</v>
+      </c>
+      <c r="H102" t="s">
         <v>181</v>
-      </c>
-      <c r="F102" t="s">
-        <v>181</v>
-      </c>
-      <c r="H102" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
@@ -2416,13 +2529,13 @@
         <v>155</v>
       </c>
       <c r="E103" t="s">
+        <v>180</v>
+      </c>
+      <c r="F103" t="s">
+        <v>180</v>
+      </c>
+      <c r="H103" t="s">
         <v>181</v>
-      </c>
-      <c r="F103" t="s">
-        <v>181</v>
-      </c>
-      <c r="H103" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
@@ -2433,10 +2546,10 @@
         <v>155</v>
       </c>
       <c r="E104" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F104" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
@@ -2447,10 +2560,10 @@
         <v>155</v>
       </c>
       <c r="E105" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F105" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
@@ -2460,6 +2573,12 @@
       <c r="C106" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="E106" t="s">
+        <v>184</v>
+      </c>
+      <c r="F106" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
@@ -2468,6 +2587,9 @@
       <c r="C107" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="H107" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
@@ -2501,10 +2623,10 @@
         <v>155</v>
       </c>
       <c r="E111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
@@ -2515,10 +2637,10 @@
         <v>155</v>
       </c>
       <c r="E112" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F112" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
@@ -2529,10 +2651,10 @@
         <v>155</v>
       </c>
       <c r="E113" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F113" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
@@ -2551,13 +2673,13 @@
         <v>155</v>
       </c>
       <c r="E115" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G115" t="s">
         <v>177</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G115" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
@@ -2568,10 +2690,10 @@
         <v>155</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
@@ -2582,10 +2704,10 @@
         <v>155</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
@@ -2596,10 +2718,10 @@
         <v>155</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
@@ -2610,10 +2732,10 @@
         <v>155</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -2624,10 +2746,10 @@
         <v>155</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
@@ -2638,10 +2760,10 @@
         <v>155</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
@@ -2652,10 +2774,10 @@
         <v>155</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
@@ -2666,10 +2788,10 @@
         <v>155</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
@@ -2680,10 +2802,10 @@
         <v>155</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
@@ -2694,10 +2816,10 @@
         <v>155</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
@@ -2707,6 +2829,12 @@
       <c r="C126" t="s">
         <v>155</v>
       </c>
+      <c r="E126" t="s">
+        <v>186</v>
+      </c>
+      <c r="F126" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
@@ -2715,6 +2843,12 @@
       <c r="C127" t="s">
         <v>155</v>
       </c>
+      <c r="E127" t="s">
+        <v>186</v>
+      </c>
+      <c r="F127" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
@@ -2723,6 +2857,12 @@
       <c r="C128" t="s">
         <v>155</v>
       </c>
+      <c r="E128" t="s">
+        <v>186</v>
+      </c>
+      <c r="F128" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
@@ -2731,6 +2871,12 @@
       <c r="C129" t="s">
         <v>155</v>
       </c>
+      <c r="E129" t="s">
+        <v>186</v>
+      </c>
+      <c r="F129" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
@@ -2739,6 +2885,12 @@
       <c r="C130" t="s">
         <v>155</v>
       </c>
+      <c r="E130" t="s">
+        <v>186</v>
+      </c>
+      <c r="F130" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
@@ -2747,6 +2899,12 @@
       <c r="C131" t="s">
         <v>155</v>
       </c>
+      <c r="E131" t="s">
+        <v>186</v>
+      </c>
+      <c r="F131" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
@@ -2755,6 +2913,15 @@
       <c r="C132" t="s">
         <v>155</v>
       </c>
+      <c r="E132" t="s">
+        <v>187</v>
+      </c>
+      <c r="F132" t="s">
+        <v>187</v>
+      </c>
+      <c r="H132" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
@@ -2763,6 +2930,12 @@
       <c r="C133" t="s">
         <v>155</v>
       </c>
+      <c r="E133" t="s">
+        <v>187</v>
+      </c>
+      <c r="F133" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
@@ -2771,6 +2944,12 @@
       <c r="C134" t="s">
         <v>155</v>
       </c>
+      <c r="E134" t="s">
+        <v>187</v>
+      </c>
+      <c r="F134" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
@@ -2779,6 +2958,12 @@
       <c r="C135" t="s">
         <v>155</v>
       </c>
+      <c r="E135" t="s">
+        <v>187</v>
+      </c>
+      <c r="F135" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
@@ -2787,6 +2972,12 @@
       <c r="C136" t="s">
         <v>155</v>
       </c>
+      <c r="E136" t="s">
+        <v>189</v>
+      </c>
+      <c r="F136" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
@@ -2795,6 +2986,12 @@
       <c r="C137" t="s">
         <v>155</v>
       </c>
+      <c r="E137" t="s">
+        <v>189</v>
+      </c>
+      <c r="F137" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
@@ -2803,6 +3000,12 @@
       <c r="C138" t="s">
         <v>155</v>
       </c>
+      <c r="E138" t="s">
+        <v>189</v>
+      </c>
+      <c r="F138" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
@@ -2811,16 +3014,22 @@
       <c r="C139" t="s">
         <v>155</v>
       </c>
+      <c r="E139" t="s">
+        <v>189</v>
+      </c>
+      <c r="F139" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C140" t="s">
         <v>155</v>
       </c>
       <c r="H140" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
@@ -2830,6 +3039,15 @@
       <c r="C141" t="s">
         <v>155</v>
       </c>
+      <c r="E141" t="s">
+        <v>190</v>
+      </c>
+      <c r="F141" t="s">
+        <v>190</v>
+      </c>
+      <c r="H141" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
@@ -2838,6 +3056,15 @@
       <c r="C142" t="s">
         <v>155</v>
       </c>
+      <c r="E142" t="s">
+        <v>190</v>
+      </c>
+      <c r="F142" t="s">
+        <v>190</v>
+      </c>
+      <c r="H142" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
@@ -2863,13 +3090,13 @@
         <v>155</v>
       </c>
       <c r="E145" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F145" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H145" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
@@ -2880,10 +3107,10 @@
         <v>155</v>
       </c>
       <c r="E146" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F146" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
@@ -2894,10 +3121,10 @@
         <v>155</v>
       </c>
       <c r="E147" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F147" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
@@ -2908,10 +3135,10 @@
         <v>155</v>
       </c>
       <c r="E148" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F148" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
@@ -2922,10 +3149,10 @@
         <v>155</v>
       </c>
       <c r="E149" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F149" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
@@ -2936,10 +3163,10 @@
         <v>155</v>
       </c>
       <c r="E150" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F150" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
@@ -2950,10 +3177,10 @@
         <v>155</v>
       </c>
       <c r="E151" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F151" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
@@ -2964,10 +3191,10 @@
         <v>155</v>
       </c>
       <c r="E152" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F152" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
@@ -2992,6 +3219,81 @@
       </c>
       <c r="C155" t="s">
         <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D9B420-FEA8-4E1C-98A4-79E4B99EE6C2}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="46.36328125" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" customWidth="1"/>
+    <col min="3" max="3" width="45.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/CIS/ansible/final/cis/CIS_RULES_with_playbook_comment2.xlsx
+++ b/CIS/ansible/final/cis/CIS_RULES_with_playbook_comment2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahe\Downloads\BSW\projectcis\CIS\ansible\final\cis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ECF4D9-9F46-43EE-97C5-070088B9061C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE9FEB7-1067-4D82-8594-1ABA5CE528F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A78F8873-882E-4DAF-84F8-439D68AAC4A5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="212">
   <si>
     <t>2.4 Ensure unused symbolic links are removed</t>
   </si>
@@ -659,6 +659,9 @@
   </si>
   <si>
     <t>YES(4.1.2.1)</t>
+  </si>
+  <si>
+    <t>YES (4.2.4)</t>
   </si>
 </sst>
 </file>
@@ -1056,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A95FC29-CCDC-4096-81D4-2F756E9CFA27}">
   <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1519,6 +1522,9 @@
       </c>
       <c r="C30" t="s">
         <v>155</v>
+      </c>
+      <c r="E30" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">

--- a/CIS/ansible/final/cis/CIS_RULES_with_playbook_comment2.xlsx
+++ b/CIS/ansible/final/cis/CIS_RULES_with_playbook_comment2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahe\Downloads\BSW\projectcis\CIS\ansible\final\cis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE9FEB7-1067-4D82-8594-1ABA5CE528F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E75071-E868-4590-B8B7-21BF16040EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A78F8873-882E-4DAF-84F8-439D68AAC4A5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="229">
   <si>
     <t>2.4 Ensure unused symbolic links are removed</t>
   </si>
@@ -662,6 +662,57 @@
   </si>
   <si>
     <t>YES (4.2.4)</t>
+  </si>
+  <si>
+    <t>YES(4.6.2)</t>
+  </si>
+  <si>
+    <t>4.7.1.10 (YES)</t>
+  </si>
+  <si>
+    <t>4.7.1.10(YES)</t>
+  </si>
+  <si>
+    <t>4.7.1.9(YES)</t>
+  </si>
+  <si>
+    <t>4.7.1.11(YES)</t>
+  </si>
+  <si>
+    <t>YES(5.1.1)</t>
+  </si>
+  <si>
+    <t>YES(5.2.4)</t>
+  </si>
+  <si>
+    <t>YES(5.2.8)</t>
+  </si>
+  <si>
+    <t>Pre_check example, ansible copy,slurp module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual review of crontab file entries to see if the user is required </t>
+  </si>
+  <si>
+    <t>YES(5.3.10)</t>
+  </si>
+  <si>
+    <t>YES(6.2.4)</t>
+  </si>
+  <si>
+    <t>YES(7.2.1)</t>
+  </si>
+  <si>
+    <t>Can create a play to make a zip folder of /etc/security</t>
+  </si>
+  <si>
+    <t>Taking long time</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>4.2.5 Ensure all entries in /etc/hosts.equiv are removed</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A95FC29-CCDC-4096-81D4-2F756E9CFA27}">
-  <dimension ref="A1:K155"/>
+  <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1068,7 +1119,7 @@
     <col min="1" max="1" width="61.54296875" customWidth="1"/>
     <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="18.54296875" customWidth="1"/>
-    <col min="8" max="8" width="30.1796875" customWidth="1"/>
+    <col min="8" max="8" width="56.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -1343,7 +1394,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1360,7 +1411,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1374,7 +1425,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1391,7 +1442,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -1402,7 +1453,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1413,7 +1464,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1427,7 +1478,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1440,8 +1491,14 @@
       <c r="F23" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H23" t="s">
+        <v>225</v>
+      </c>
+      <c r="I23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1455,7 +1512,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1469,7 +1526,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1483,7 +1540,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1499,8 +1556,11 @@
       <c r="H27" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -1508,7 +1568,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -1516,7 +1576,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -1527,7 +1587,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -1535,7 +1595,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -2478,6 +2538,9 @@
       <c r="C99" t="s">
         <v>155</v>
       </c>
+      <c r="E99" t="s">
+        <v>212</v>
+      </c>
       <c r="H99" t="s">
         <v>206</v>
       </c>
@@ -2604,6 +2667,12 @@
       <c r="C108" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="E108" t="s">
+        <v>215</v>
+      </c>
+      <c r="F108" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
@@ -2612,6 +2681,12 @@
       <c r="C109" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="E109" t="s">
+        <v>213</v>
+      </c>
+      <c r="F109" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
@@ -2620,6 +2695,12 @@
       <c r="C110" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
@@ -3034,6 +3115,12 @@
       <c r="C140" t="s">
         <v>155</v>
       </c>
+      <c r="E140" t="s">
+        <v>217</v>
+      </c>
+      <c r="F140" t="s">
+        <v>217</v>
+      </c>
       <c r="H140" t="s">
         <v>192</v>
       </c>
@@ -3079,6 +3166,12 @@
       <c r="C143" t="s">
         <v>155</v>
       </c>
+      <c r="E143" t="s">
+        <v>218</v>
+      </c>
+      <c r="F143" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
@@ -3087,8 +3180,14 @@
       <c r="C144" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E144" t="s">
+        <v>219</v>
+      </c>
+      <c r="F144" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
         <v>142</v>
       </c>
@@ -3105,7 +3204,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
         <v>143</v>
       </c>
@@ -3119,7 +3218,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
         <v>144</v>
       </c>
@@ -3133,7 +3232,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
         <v>145</v>
       </c>
@@ -3147,7 +3246,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
         <v>146</v>
       </c>
@@ -3161,7 +3260,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
         <v>147</v>
       </c>
@@ -3175,7 +3274,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>148</v>
       </c>
@@ -3189,7 +3288,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
         <v>149</v>
       </c>
@@ -3203,28 +3302,57 @@
         <v>178</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C153" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E153" t="s">
+        <v>222</v>
+      </c>
+      <c r="F153" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C154" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E154" t="s">
+        <v>223</v>
+      </c>
+      <c r="F154" t="s">
+        <v>223</v>
+      </c>
+      <c r="H154" t="s">
+        <v>221</v>
+      </c>
+      <c r="I154" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C155" t="s">
         <v>155</v>
+      </c>
+      <c r="E155" t="s">
+        <v>224</v>
+      </c>
+      <c r="F155" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3236,9 +3364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D9B420-FEA8-4E1C-98A4-79E4B99EE6C2}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/CIS/ansible/final/cis/CIS_RULES_with_playbook_comment2.xlsx
+++ b/CIS/ansible/final/cis/CIS_RULES_with_playbook_comment2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahe\Downloads\BSW\projectcis\CIS\ansible\final\cis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E75071-E868-4590-B8B7-21BF16040EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2095299-7819-4F47-848D-EB6A83A2FD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A78F8873-882E-4DAF-84F8-439D68AAC4A5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="248">
   <si>
     <t>2.4 Ensure unused symbolic links are removed</t>
   </si>
@@ -713,6 +713,63 @@
   </si>
   <si>
     <t>4.2.5 Ensure all entries in /etc/hosts.equiv are removed</t>
+  </si>
+  <si>
+    <t>YES(4.2.5)</t>
+  </si>
+  <si>
+    <t>4.3.2.9 Ensure mrouted is not in use</t>
+  </si>
+  <si>
+    <t>4.4.1.5 Ensure NFS exports use allow lists</t>
+  </si>
+  <si>
+    <t>YES(4.4.1.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES(4.4.1.5) </t>
+  </si>
+  <si>
+    <t>Pre_check example</t>
+  </si>
+  <si>
+    <t>Manual review of NFS exports using pre-check and update the vars/main file in the remediation role</t>
+  </si>
+  <si>
+    <t>4.4.1.7 Ensure secure RPC authentication is enabled</t>
+  </si>
+  <si>
+    <t>4.7.3.15 Ensure sshd PermitRootLogin is disabled</t>
+  </si>
+  <si>
+    <t>YES(4.7.3.15)</t>
+  </si>
+  <si>
+    <t>7.1.1 Ensure /audit filesystem has been created and configured"</t>
+  </si>
+  <si>
+    <t>7.1.2 Ensure Audit configuration defines audit classes</t>
+  </si>
+  <si>
+    <t>Is Part of 7.1.1</t>
+  </si>
+  <si>
+    <t>7.1.3 Ensure Audit creates audit processing commands"</t>
+  </si>
+  <si>
+    <t>7.1.4 Ensure Audit bin(ary) audit event collection is configured</t>
+  </si>
+  <si>
+    <t>7.2.3 Ensure syslog is not configured to receive logs from a remote client</t>
+  </si>
+  <si>
+    <t>Included in 7.1.1</t>
+  </si>
+  <si>
+    <t>YES(7.1.x)</t>
+  </si>
+  <si>
+    <t>YES(7.2.3)</t>
   </si>
 </sst>
 </file>
@@ -1108,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A95FC29-CCDC-4096-81D4-2F756E9CFA27}">
-  <dimension ref="A1:K157"/>
+  <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="G163" sqref="G163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1695,21 +1752,12 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39" t="s">
-        <v>157</v>
-      </c>
-      <c r="F39" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
         <v>155</v>
@@ -1723,7 +1771,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
         <v>155</v>
@@ -1737,7 +1785,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
         <v>155</v>
@@ -1751,7 +1799,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
         <v>155</v>
@@ -1764,22 +1812,22 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>42</v>
+      <c r="A44" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C44" t="s">
         <v>155</v>
       </c>
-      <c r="E44" t="s">
-        <v>171</v>
+      <c r="D44" t="s">
+        <v>157</v>
       </c>
       <c r="F44" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
         <v>155</v>
@@ -1793,7 +1841,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
         <v>155</v>
@@ -1806,22 +1854,22 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
-        <v>45</v>
+      <c r="A47" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C47" t="s">
         <v>155</v>
       </c>
       <c r="E47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
         <v>155</v>
@@ -1835,7 +1883,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
         <v>155</v>
@@ -1849,7 +1897,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
         <v>155</v>
@@ -1863,7 +1911,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
         <v>155</v>
@@ -1877,7 +1925,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
         <v>155</v>
@@ -1891,7 +1939,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
         <v>155</v>
@@ -1905,7 +1953,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
         <v>155</v>
@@ -1919,7 +1967,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
         <v>155</v>
@@ -1933,7 +1981,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
         <v>155</v>
@@ -1947,7 +1995,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
         <v>155</v>
@@ -1961,7 +2009,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
         <v>155</v>
@@ -1975,7 +2023,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
         <v>155</v>
@@ -1989,7 +2037,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
         <v>155</v>
@@ -2003,7 +2051,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
         <v>155</v>
@@ -2017,7 +2065,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
         <v>155</v>
@@ -2031,7 +2079,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
         <v>155</v>
@@ -2045,7 +2093,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
         <v>155</v>
@@ -2059,7 +2107,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
         <v>155</v>
@@ -2073,7 +2121,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
         <v>155</v>
@@ -2087,7 +2135,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
         <v>155</v>
@@ -2101,7 +2149,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
         <v>155</v>
@@ -2115,7 +2163,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
         <v>155</v>
@@ -2129,7 +2177,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
         <v>155</v>
@@ -2143,7 +2191,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
         <v>155</v>
@@ -2157,7 +2205,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" t="s">
         <v>155</v>
@@ -2171,7 +2219,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
         <v>155</v>
@@ -2185,7 +2233,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
         <v>155</v>
@@ -2199,35 +2247,35 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>155</v>
+      </c>
+      <c r="E75" t="s">
+        <v>172</v>
+      </c>
+      <c r="F75" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C75" t="s">
-        <v>155</v>
-      </c>
-      <c r="E75" t="s">
-        <v>172</v>
-      </c>
-      <c r="F75" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C76" t="s">
         <v>155</v>
       </c>
       <c r="E76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" t="s">
         <v>155</v>
@@ -2241,7 +2289,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
         <v>155</v>
@@ -2255,7 +2303,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s">
         <v>155</v>
@@ -2267,51 +2315,37 @@
         <v>173</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="6" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" t="s">
+        <v>155</v>
+      </c>
+      <c r="E81" t="s">
+        <v>173</v>
+      </c>
+      <c r="F81" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C80" t="s">
-        <v>155</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="C82" t="s">
+        <v>155</v>
+      </c>
+      <c r="E82" t="s">
         <v>205</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F82" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C81" t="s">
-        <v>155</v>
-      </c>
-      <c r="E81" t="s">
-        <v>174</v>
-      </c>
-      <c r="F81" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C82" t="s">
-        <v>155</v>
-      </c>
-      <c r="E82" t="s">
-        <v>174</v>
-      </c>
-      <c r="F82" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C83" t="s">
         <v>155</v>
@@ -2325,7 +2359,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C84" t="s">
         <v>155</v>
@@ -2339,7 +2373,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C85" t="s">
         <v>155</v>
@@ -2353,7 +2387,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C86" t="s">
         <v>155</v>
@@ -2367,7 +2401,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C87" t="s">
         <v>155</v>
@@ -2381,7 +2415,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C88" t="s">
         <v>155</v>
@@ -2395,7 +2429,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C89" t="s">
         <v>155</v>
@@ -2409,7 +2443,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C90" t="s">
         <v>155</v>
@@ -2423,7 +2457,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C91" t="s">
         <v>155</v>
@@ -2437,7 +2471,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C92" t="s">
         <v>155</v>
@@ -2450,7 +2484,9 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
+      <c r="A93" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="C93" t="s">
         <v>155</v>
       </c>
@@ -2463,7 +2499,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C94" t="s">
         <v>155</v>
@@ -2476,9 +2512,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="A95" s="2"/>
       <c r="C95" t="s">
         <v>155</v>
       </c>
@@ -2491,7 +2525,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C96" t="s">
         <v>155</v>
@@ -2505,7 +2539,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C97" t="s">
         <v>155</v>
@@ -2519,7 +2553,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C98" t="s">
         <v>155</v>
@@ -2532,66 +2566,58 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" t="s">
+        <v>155</v>
+      </c>
+      <c r="E99" t="s">
+        <v>174</v>
+      </c>
+      <c r="F99" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100" t="s">
+        <v>155</v>
+      </c>
+      <c r="E100" t="s">
+        <v>174</v>
+      </c>
+      <c r="F100" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C99" t="s">
-        <v>155</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="C101" t="s">
+        <v>155</v>
+      </c>
+      <c r="E101" t="s">
         <v>212</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H101" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>97</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H102" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E101" t="s">
-        <v>180</v>
-      </c>
-      <c r="F101" t="s">
-        <v>180</v>
-      </c>
-      <c r="H101" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E102" t="s">
-        <v>180</v>
-      </c>
-      <c r="F102" t="s">
-        <v>180</v>
-      </c>
-      <c r="H102" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5" t="s">
@@ -2608,131 +2634,139 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="A104" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104" s="5"/>
       <c r="C104" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E104" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F104" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="H104" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B105" s="5"/>
       <c r="C105" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E105" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F105" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="H105" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E106" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F106" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H107" t="s">
-        <v>185</v>
+      <c r="E107" t="s">
+        <v>183</v>
+      </c>
+      <c r="F107" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="F108" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109" s="2" t="s">
-        <v>106</v>
+      <c r="A109" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E109" t="s">
-        <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
+      <c r="H109" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E110" t="s">
+        <v>215</v>
+      </c>
+      <c r="F110" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E111" t="s">
+        <v>213</v>
+      </c>
+      <c r="F111" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="C112" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E112" t="s">
         <v>216</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F112" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E111" t="s">
-        <v>175</v>
-      </c>
-      <c r="F111" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E112" t="s">
-        <v>175</v>
-      </c>
-      <c r="F112" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>155</v>
@@ -2745,47 +2779,44 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E114" t="s">
+        <v>175</v>
+      </c>
+      <c r="F114" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E115" t="s">
+        <v>175</v>
+      </c>
+      <c r="F115" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C114" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C115" t="s">
-        <v>155</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G115" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C116" t="s">
         <v>155</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C117" t="s">
         <v>155</v>
@@ -2796,10 +2827,13 @@
       <c r="F117" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="G117" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C118" t="s">
         <v>155</v>
@@ -2813,7 +2847,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C119" t="s">
         <v>155</v>
@@ -2827,7 +2861,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C120" t="s">
         <v>155</v>
@@ -2841,7 +2875,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C121" t="s">
         <v>155</v>
@@ -2855,7 +2889,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C122" t="s">
         <v>155</v>
@@ -2869,7 +2903,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C123" t="s">
         <v>155</v>
@@ -2883,7 +2917,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C124" t="s">
         <v>155</v>
@@ -2897,7 +2931,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C125" t="s">
         <v>155</v>
@@ -2910,36 +2944,36 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="4" t="s">
-        <v>123</v>
+      <c r="A126" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C126" t="s">
         <v>155</v>
       </c>
-      <c r="E126" t="s">
-        <v>186</v>
-      </c>
-      <c r="F126" t="s">
-        <v>186</v>
+      <c r="E126" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="4" t="s">
-        <v>124</v>
+      <c r="A127" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C127" t="s">
         <v>155</v>
       </c>
-      <c r="E127" t="s">
-        <v>186</v>
-      </c>
-      <c r="F127" t="s">
-        <v>186</v>
+      <c r="E127" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C128" t="s">
         <v>155</v>
@@ -2953,7 +2987,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C129" t="s">
         <v>155</v>
@@ -2967,7 +3001,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C130" t="s">
         <v>155</v>
@@ -2981,7 +3015,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C131" t="s">
         <v>155</v>
@@ -2994,39 +3028,36 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A132" s="2" t="s">
-        <v>129</v>
+      <c r="A132" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="C132" t="s">
         <v>155</v>
       </c>
       <c r="E132" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F132" t="s">
-        <v>187</v>
-      </c>
-      <c r="H132" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A133" s="2" t="s">
-        <v>130</v>
+      <c r="A133" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C133" t="s">
         <v>155</v>
       </c>
       <c r="E133" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F133" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C134" t="s">
         <v>155</v>
@@ -3037,10 +3068,13 @@
       <c r="F134" t="s">
         <v>187</v>
       </c>
+      <c r="H134" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C135" t="s">
         <v>155</v>
@@ -3053,36 +3087,36 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136" s="4" t="s">
-        <v>133</v>
+      <c r="A136" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C136" t="s">
         <v>155</v>
       </c>
       <c r="E136" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F136" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A137" s="4" t="s">
-        <v>134</v>
+      <c r="A137" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C137" t="s">
         <v>155</v>
       </c>
       <c r="E137" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F137" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C138" t="s">
         <v>155</v>
@@ -3096,7 +3130,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C139" t="s">
         <v>155</v>
@@ -3109,118 +3143,115 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A140" s="7" t="s">
+      <c r="A140" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C140" t="s">
+        <v>155</v>
+      </c>
+      <c r="E140" t="s">
+        <v>189</v>
+      </c>
+      <c r="F140" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C141" t="s">
+        <v>155</v>
+      </c>
+      <c r="E141" t="s">
+        <v>189</v>
+      </c>
+      <c r="F141" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C140" t="s">
-        <v>155</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="C142" t="s">
+        <v>155</v>
+      </c>
+      <c r="E142" t="s">
         <v>217</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F142" t="s">
         <v>217</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H142" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A141" s="2" t="s">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C141" t="s">
-        <v>155</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="C143" t="s">
+        <v>155</v>
+      </c>
+      <c r="E143" t="s">
         <v>190</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F143" t="s">
         <v>190</v>
       </c>
-      <c r="H141" t="s">
+      <c r="H143" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A142" s="2" t="s">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C142" t="s">
-        <v>155</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="C144" t="s">
+        <v>155</v>
+      </c>
+      <c r="E144" t="s">
         <v>190</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F144" t="s">
         <v>190</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H144" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A143" s="1" t="s">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C143" t="s">
-        <v>155</v>
-      </c>
-      <c r="E143" t="s">
+      <c r="C145" t="s">
+        <v>155</v>
+      </c>
+      <c r="E145" t="s">
         <v>218</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F145" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A144" s="1" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C144" t="s">
-        <v>155</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="C146" t="s">
+        <v>155</v>
+      </c>
+      <c r="E146" t="s">
         <v>219</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F146" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A145" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C145" t="s">
-        <v>155</v>
-      </c>
-      <c r="E145" t="s">
-        <v>178</v>
-      </c>
-      <c r="F145" t="s">
-        <v>178</v>
-      </c>
-      <c r="H145" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A146" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C146" t="s">
-        <v>155</v>
-      </c>
-      <c r="E146" t="s">
-        <v>178</v>
-      </c>
-      <c r="F146" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C147" t="s">
         <v>155</v>
@@ -3231,10 +3262,13 @@
       <c r="F147" t="s">
         <v>178</v>
       </c>
+      <c r="H147" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -3248,7 +3282,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C149" t="s">
         <v>155</v>
@@ -3262,7 +3296,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C150" t="s">
         <v>155</v>
@@ -3276,7 +3310,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C151" t="s">
         <v>155</v>
@@ -3290,7 +3324,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C152" t="s">
         <v>155</v>
@@ -3303,56 +3337,201 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A153" s="1" t="s">
-        <v>150</v>
+      <c r="A153" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="C153" t="s">
         <v>155</v>
       </c>
       <c r="E153" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="F153" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C154" t="s">
         <v>155</v>
       </c>
       <c r="E154" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="F154" t="s">
-        <v>223</v>
-      </c>
-      <c r="H154" t="s">
-        <v>221</v>
-      </c>
-      <c r="I154" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C155" t="s">
+        <v>155</v>
+      </c>
+      <c r="E155" t="s">
+        <v>222</v>
+      </c>
+      <c r="F155" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A156" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C156" t="s">
+        <v>155</v>
+      </c>
+      <c r="E156" t="s">
+        <v>223</v>
+      </c>
+      <c r="F156" t="s">
+        <v>223</v>
+      </c>
+      <c r="H156" t="s">
+        <v>221</v>
+      </c>
+      <c r="I156" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C155" t="s">
-        <v>155</v>
-      </c>
-      <c r="E155" t="s">
+      <c r="C157" t="s">
+        <v>155</v>
+      </c>
+      <c r="E157" t="s">
         <v>224</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F157" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>228</v>
+      </c>
+      <c r="E159" t="s">
+        <v>229</v>
+      </c>
+      <c r="F159" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E160" t="s">
+        <v>232</v>
+      </c>
+      <c r="F160" t="s">
+        <v>233</v>
+      </c>
+      <c r="H160" t="s">
+        <v>235</v>
+      </c>
+      <c r="I160" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>237</v>
+      </c>
+      <c r="C162" t="s">
+        <v>155</v>
+      </c>
+      <c r="E162" t="s">
+        <v>238</v>
+      </c>
+      <c r="G162" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A163" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G163" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A164" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H164" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A165" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H165" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A166" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H166" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>244</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G167" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3364,27 +3543,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D9B420-FEA8-4E1C-98A4-79E4B99EE6C2}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.36328125" customWidth="1"/>
+    <col min="1" max="1" width="74.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.54296875" customWidth="1"/>
     <col min="3" max="3" width="45.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3399,27 +3580,27 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>203</v>
       </c>
     </row>

--- a/CIS/ansible/final/cis/CIS_RULES_with_playbook_comment2.xlsx
+++ b/CIS/ansible/final/cis/CIS_RULES_with_playbook_comment2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahe\Downloads\BSW\projectcis\CIS\ansible\final\cis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2095299-7819-4F47-848D-EB6A83A2FD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F5F0D0-F185-4D12-B8C5-61A0B2B9D674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A78F8873-882E-4DAF-84F8-439D68AAC4A5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="251">
   <si>
     <t>2.4 Ensure unused symbolic links are removed</t>
   </si>
@@ -770,13 +770,22 @@
   </si>
   <si>
     <t>YES(7.2.3)</t>
+  </si>
+  <si>
+    <t>4.5.13 Ensure ip6srcrouteforward is disabled</t>
+  </si>
+  <si>
+    <t>Stuck with the playbook</t>
+  </si>
+  <si>
+    <t>Good example</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -791,8 +800,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -829,8 +845,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -838,11 +860,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -851,6 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1165,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A95FC29-CCDC-4096-81D4-2F756E9CFA27}">
-  <dimension ref="A1:K167"/>
+  <dimension ref="A1:K165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="G163" sqref="G163"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1487,16 +1525,19 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D19" t="s">
         <v>155</v>
       </c>
       <c r="E19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F19" t="s">
         <v>210</v>
+      </c>
+      <c r="I19" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1504,10 +1545,13 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s">
         <v>155</v>
+      </c>
+      <c r="I20" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1520,6 +1564,15 @@
       <c r="D21" t="s">
         <v>155</v>
       </c>
+      <c r="E21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H21" t="s">
+        <v>249</v>
+      </c>
+      <c r="I21" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
@@ -2315,37 +2368,51 @@
         <v>173</v>
       </c>
     </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" t="s">
+        <v>173</v>
+      </c>
+      <c r="F80" t="s">
+        <v>173</v>
+      </c>
+    </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>77</v>
+      <c r="A81" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C81" t="s">
         <v>155</v>
       </c>
       <c r="E81" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="F81" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="6" t="s">
-        <v>78</v>
+      <c r="A82" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C82" t="s">
         <v>155</v>
       </c>
       <c r="E82" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="F82" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C83" t="s">
         <v>155</v>
@@ -2359,7 +2426,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C84" t="s">
         <v>155</v>
@@ -2373,7 +2440,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C85" t="s">
         <v>155</v>
@@ -2387,7 +2454,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C86" t="s">
         <v>155</v>
@@ -2401,7 +2468,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C87" t="s">
         <v>155</v>
@@ -2415,7 +2482,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C88" t="s">
         <v>155</v>
@@ -2429,7 +2496,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C89" t="s">
         <v>155</v>
@@ -2443,7 +2510,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C90" t="s">
         <v>155</v>
@@ -2457,7 +2524,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C91" t="s">
         <v>155</v>
@@ -2471,7 +2538,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C92" t="s">
         <v>155</v>
@@ -2485,7 +2552,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C93" t="s">
         <v>155</v>
@@ -2498,21 +2565,14 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C94" t="s">
-        <v>155</v>
-      </c>
-      <c r="E94" t="s">
-        <v>174</v>
-      </c>
-      <c r="F94" t="s">
-        <v>174</v>
+      <c r="A94" s="8" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
+      <c r="A95" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="C95" t="s">
         <v>155</v>
       </c>
@@ -2525,7 +2585,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C96" t="s">
         <v>155</v>
@@ -2539,7 +2599,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C97" t="s">
         <v>155</v>
@@ -2553,7 +2613,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C98" t="s">
         <v>155</v>
@@ -2567,7 +2627,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C99" t="s">
         <v>155</v>
@@ -2580,44 +2640,48 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="2" t="s">
-        <v>95</v>
+      <c r="A100" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="C100" t="s">
         <v>155</v>
       </c>
       <c r="E100" t="s">
-        <v>174</v>
-      </c>
-      <c r="F100" t="s">
-        <v>174</v>
+        <v>212</v>
+      </c>
+      <c r="H100" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C101" t="s">
-        <v>155</v>
-      </c>
-      <c r="E101" t="s">
-        <v>212</v>
+      <c r="A101" t="s">
+        <v>97</v>
       </c>
       <c r="H101" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>97</v>
+      <c r="A102" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E102" t="s">
+        <v>180</v>
+      </c>
+      <c r="F102" t="s">
+        <v>180</v>
       </c>
       <c r="H102" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5" t="s">
@@ -2635,7 +2699,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="5" t="s">
@@ -2652,121 +2716,117 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B105" s="5"/>
+      <c r="A105" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="C105" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E105" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F105" t="s">
-        <v>180</v>
-      </c>
-      <c r="H105" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106" s="2" t="s">
-        <v>101</v>
+      <c r="A106" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E106" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F106" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107" s="5" t="s">
-        <v>102</v>
+      <c r="A107" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E107" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F107" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108" s="2" t="s">
-        <v>103</v>
+      <c r="A108" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E108" t="s">
-        <v>184</v>
-      </c>
-      <c r="F108" t="s">
-        <v>184</v>
+      <c r="H108" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109" s="5" t="s">
-        <v>104</v>
+      <c r="A109" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H109" t="s">
-        <v>185</v>
+      <c r="E109" t="s">
+        <v>215</v>
+      </c>
+      <c r="F109" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" s="2" t="s">
-        <v>107</v>
+      <c r="A112" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E112" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>155</v>
@@ -2780,7 +2840,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>155</v>
@@ -2793,30 +2853,33 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E115" t="s">
-        <v>175</v>
-      </c>
-      <c r="F115" t="s">
-        <v>175</v>
+      <c r="A115" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C115" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="6" t="s">
-        <v>111</v>
+      <c r="A116" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="C116" t="s">
         <v>155</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G116" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C117" t="s">
         <v>155</v>
@@ -2827,13 +2890,10 @@
       <c r="F117" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G117" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C118" t="s">
         <v>155</v>
@@ -2847,7 +2907,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C119" t="s">
         <v>155</v>
@@ -2861,7 +2921,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C120" t="s">
         <v>155</v>
@@ -2875,7 +2935,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C121" t="s">
         <v>155</v>
@@ -2889,7 +2949,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C122" t="s">
         <v>155</v>
@@ -2903,7 +2963,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C123" t="s">
         <v>155</v>
@@ -2917,7 +2977,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C124" t="s">
         <v>155</v>
@@ -2931,7 +2991,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C125" t="s">
         <v>155</v>
@@ -2945,7 +3005,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C126" t="s">
         <v>155</v>
@@ -2958,22 +3018,22 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="2" t="s">
-        <v>122</v>
+      <c r="A127" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="C127" t="s">
         <v>155</v>
       </c>
-      <c r="E127" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>176</v>
+      <c r="E127" t="s">
+        <v>186</v>
+      </c>
+      <c r="F127" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C128" t="s">
         <v>155</v>
@@ -2987,7 +3047,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C129" t="s">
         <v>155</v>
@@ -3001,7 +3061,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C130" t="s">
         <v>155</v>
@@ -3015,7 +3075,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C131" t="s">
         <v>155</v>
@@ -3029,7 +3089,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C132" t="s">
         <v>155</v>
@@ -3042,22 +3102,25 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A133" s="4" t="s">
-        <v>128</v>
+      <c r="A133" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="C133" t="s">
         <v>155</v>
       </c>
       <c r="E133" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F133" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="H133" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C134" t="s">
         <v>155</v>
@@ -3068,13 +3131,10 @@
       <c r="F134" t="s">
         <v>187</v>
       </c>
-      <c r="H134" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C135" t="s">
         <v>155</v>
@@ -3088,7 +3148,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C136" t="s">
         <v>155</v>
@@ -3101,22 +3161,22 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A137" s="2" t="s">
-        <v>132</v>
+      <c r="A137" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="C137" t="s">
         <v>155</v>
       </c>
       <c r="E137" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F137" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C138" t="s">
         <v>155</v>
@@ -3130,7 +3190,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C139" t="s">
         <v>155</v>
@@ -3144,7 +3204,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C140" t="s">
         <v>155</v>
@@ -3157,39 +3217,42 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A141" s="4" t="s">
-        <v>136</v>
+      <c r="A141" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="C141" t="s">
         <v>155</v>
       </c>
       <c r="E141" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="F141" t="s">
-        <v>189</v>
+        <v>217</v>
+      </c>
+      <c r="H141" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A142" s="7" t="s">
-        <v>137</v>
+      <c r="A142" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="C142" t="s">
         <v>155</v>
       </c>
       <c r="E142" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F142" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="H142" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C143" t="s">
         <v>155</v>
@@ -3205,53 +3268,53 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A144" s="2" t="s">
-        <v>139</v>
+      <c r="A144" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="C144" t="s">
         <v>155</v>
       </c>
       <c r="E144" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="F144" t="s">
-        <v>190</v>
-      </c>
-      <c r="H144" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C145" t="s">
         <v>155</v>
       </c>
       <c r="E145" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F145" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A146" s="1" t="s">
-        <v>141</v>
+      <c r="A146" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="C146" t="s">
         <v>155</v>
       </c>
       <c r="E146" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="F146" t="s">
-        <v>219</v>
+        <v>178</v>
+      </c>
+      <c r="H146" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C147" t="s">
         <v>155</v>
@@ -3262,13 +3325,10 @@
       <c r="F147" t="s">
         <v>178</v>
       </c>
-      <c r="H147" t="s">
-        <v>159</v>
-      </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -3282,7 +3342,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C149" t="s">
         <v>155</v>
@@ -3296,7 +3356,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C150" t="s">
         <v>155</v>
@@ -3310,7 +3370,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C151" t="s">
         <v>155</v>
@@ -3324,7 +3384,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C152" t="s">
         <v>155</v>
@@ -3338,7 +3398,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C153" t="s">
         <v>155</v>
@@ -3351,117 +3411,135 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A154" s="4" t="s">
-        <v>149</v>
+      <c r="A154" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C154" t="s">
         <v>155</v>
       </c>
       <c r="E154" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="F154" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A155" s="1" t="s">
-        <v>150</v>
+      <c r="A155" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="C155" t="s">
         <v>155</v>
       </c>
       <c r="E155" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F155" t="s">
-        <v>222</v>
+        <v>223</v>
+      </c>
+      <c r="H155" t="s">
+        <v>221</v>
+      </c>
+      <c r="I155" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A156" s="4" t="s">
-        <v>151</v>
+      <c r="A156" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="C156" t="s">
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F156" t="s">
-        <v>223</v>
-      </c>
-      <c r="H156" t="s">
-        <v>221</v>
-      </c>
-      <c r="I156" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A157" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C157" t="s">
-        <v>155</v>
+      <c r="A157" t="s">
+        <v>228</v>
       </c>
       <c r="E157" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F157" t="s">
-        <v>224</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E158" t="s">
+        <v>232</v>
+      </c>
+      <c r="F158" t="s">
+        <v>233</v>
+      </c>
+      <c r="H158" t="s">
+        <v>235</v>
+      </c>
+      <c r="I158" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>228</v>
-      </c>
-      <c r="E159" t="s">
-        <v>229</v>
-      </c>
-      <c r="F159" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A160" s="1" t="s">
-        <v>231</v>
+      <c r="A160" t="s">
+        <v>237</v>
+      </c>
+      <c r="C160" t="s">
+        <v>155</v>
       </c>
       <c r="E160" t="s">
-        <v>232</v>
-      </c>
-      <c r="F160" t="s">
-        <v>233</v>
-      </c>
-      <c r="H160" t="s">
-        <v>235</v>
-      </c>
-      <c r="I160" t="s">
-        <v>234</v>
+        <v>238</v>
+      </c>
+      <c r="G160" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>236</v>
+      <c r="A161" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G161" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>237</v>
-      </c>
-      <c r="C162" t="s">
-        <v>155</v>
-      </c>
-      <c r="E162" t="s">
-        <v>238</v>
-      </c>
-      <c r="G162" t="s">
-        <v>155</v>
+      <c r="A162" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H162" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2" t="s">
@@ -3471,13 +3549,13 @@
       <c r="E163" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G163" t="s">
-        <v>155</v>
+      <c r="H163" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2" t="s">
@@ -3488,49 +3566,17 @@
         <v>246</v>
       </c>
       <c r="H164" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A165" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D165" s="2"/>
+      <c r="A165" t="s">
+        <v>244</v>
+      </c>
       <c r="E165" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H165" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A166" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H166" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>244</v>
-      </c>
-      <c r="E167" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G165" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3544,7 +3590,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/CIS/ansible/final/cis/CIS_RULES_with_playbook_comment2.xlsx
+++ b/CIS/ansible/final/cis/CIS_RULES_with_playbook_comment2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahe\Downloads\BSW\projectcis\CIS\ansible\final\cis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F5F0D0-F185-4D12-B8C5-61A0B2B9D674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC116FE4-84A2-4FFA-B86C-71874ECD1770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A78F8873-882E-4DAF-84F8-439D68AAC4A5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="264">
   <si>
     <t>2.4 Ensure unused symbolic links are removed</t>
   </si>
@@ -775,10 +775,49 @@
     <t>4.5.13 Ensure ip6srcrouteforward is disabled</t>
   </si>
   <si>
-    <t>Stuck with the playbook</t>
-  </si>
-  <si>
     <t>Good example</t>
+  </si>
+  <si>
+    <t>YES(4.1.2.2)</t>
+  </si>
+  <si>
+    <t>YES(4.1.2.3)</t>
+  </si>
+  <si>
+    <t>Manual remediation required, the playbook will lock the accounts found</t>
+  </si>
+  <si>
+    <t>N0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual remediation required, the playbook will find the unused links </t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>All complete</t>
+  </si>
+  <si>
+    <t>Review_Role</t>
+  </si>
+  <si>
+    <t>YES(3.7.b)</t>
+  </si>
+  <si>
+    <t>YES(2.4.a)</t>
+  </si>
+  <si>
+    <t>YES(3.7.a)</t>
+  </si>
+  <si>
+    <t>Alt_disk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two roles, review and remediate. </t>
+  </si>
+  <si>
+    <t>Have to work on 3.7.b</t>
   </si>
 </sst>
 </file>
@@ -879,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -889,6 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1203,72 +1243,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A95FC29-CCDC-4096-81D4-2F756E9CFA27}">
-  <dimension ref="A1:K165"/>
+  <dimension ref="A1:L165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="61.54296875" customWidth="1"/>
     <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="18.54296875" customWidth="1"/>
-    <col min="8" max="8" width="56.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="18.54296875" customWidth="1"/>
+    <col min="9" max="9" width="56.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C1" t="s">
         <v>154</v>
       </c>
+      <c r="D1" t="s">
+        <v>257</v>
+      </c>
       <c r="E1" t="s">
         <v>160</v>
       </c>
       <c r="F1" t="s">
         <v>161</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>162</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>167</v>
       </c>
       <c r="K1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>155</v>
       </c>
+      <c r="D2" t="s">
+        <v>259</v>
+      </c>
       <c r="E2" t="s">
         <v>207</v>
       </c>
       <c r="F2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>155</v>
       </c>
-      <c r="E3" t="s">
-        <v>209</v>
+      <c r="D3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="F3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1281,11 +1351,11 @@
       <c r="F4" t="s">
         <v>163</v>
       </c>
-      <c r="G4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1298,11 +1368,11 @@
       <c r="F5" t="s">
         <v>163</v>
       </c>
-      <c r="G5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1315,11 +1385,11 @@
       <c r="F6" t="s">
         <v>163</v>
       </c>
-      <c r="G6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1332,11 +1402,11 @@
       <c r="F7" t="s">
         <v>163</v>
       </c>
-      <c r="G7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1349,11 +1419,11 @@
       <c r="F8" t="s">
         <v>163</v>
       </c>
-      <c r="G8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1366,11 +1436,11 @@
       <c r="F9" t="s">
         <v>163</v>
       </c>
-      <c r="G9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1383,11 +1453,11 @@
       <c r="F10" t="s">
         <v>163</v>
       </c>
-      <c r="G10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1400,11 +1470,11 @@
       <c r="F11" t="s">
         <v>163</v>
       </c>
-      <c r="G11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1417,11 +1487,11 @@
       <c r="F12" t="s">
         <v>163</v>
       </c>
-      <c r="G12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1434,11 +1504,11 @@
       <c r="F13" t="s">
         <v>163</v>
       </c>
-      <c r="G13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1451,11 +1521,11 @@
       <c r="F14" t="s">
         <v>163</v>
       </c>
-      <c r="G14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1468,11 +1538,11 @@
       <c r="F15" t="s">
         <v>163</v>
       </c>
-      <c r="G15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1485,11 +1555,11 @@
       <c r="F16" t="s">
         <v>163</v>
       </c>
-      <c r="G16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1502,11 +1572,11 @@
       <c r="F17" t="s">
         <v>163</v>
       </c>
-      <c r="G17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1520,61 +1590,85 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" t="s">
-        <v>155</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C19" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="I19" t="s">
+      <c r="H19" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" t="s">
-        <v>155</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="F20" s="5" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="H20" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" t="s">
-        <v>209</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="D21" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="I21" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1588,7 +1682,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1601,14 +1695,14 @@
       <c r="F23" t="s">
         <v>165</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>225</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1622,7 +1716,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1636,7 +1730,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1650,7 +1744,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,14 +1757,14 @@
       <c r="F27" t="s">
         <v>169</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>168</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -1678,7 +1772,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -1686,7 +1780,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -1697,7 +1791,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -1705,7 +1799,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -2597,7 +2691,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>93</v>
       </c>
@@ -2611,7 +2705,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>94</v>
       </c>
@@ -2625,7 +2719,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>95</v>
       </c>
@@ -2639,7 +2733,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>96</v>
       </c>
@@ -2649,19 +2743,19 @@
       <c r="E100" t="s">
         <v>212</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>97</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>98</v>
       </c>
@@ -2675,11 +2769,11 @@
       <c r="F102" t="s">
         <v>180</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>99</v>
       </c>
@@ -2693,11 +2787,11 @@
       <c r="F103" t="s">
         <v>180</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>100</v>
       </c>
@@ -2711,11 +2805,11 @@
       <c r="F104" t="s">
         <v>180</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>101</v>
       </c>
@@ -2729,7 +2823,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>102</v>
       </c>
@@ -2743,7 +2837,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>103</v>
       </c>
@@ -2757,18 +2851,18 @@
         <v>184</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>105</v>
       </c>
@@ -2782,7 +2876,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>106</v>
       </c>
@@ -2796,7 +2890,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>107</v>
       </c>
@@ -2810,7 +2904,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>108</v>
       </c>
@@ -2824,7 +2918,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>109</v>
       </c>
@@ -2838,7 +2932,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>110</v>
       </c>
@@ -2852,7 +2946,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
         <v>111</v>
       </c>
@@ -2860,7 +2954,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>112</v>
       </c>
@@ -2873,11 +2967,12 @@
       <c r="F116" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="3"/>
+      <c r="H116" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>113</v>
       </c>
@@ -2890,8 +2985,9 @@
       <c r="F117" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G117" s="3"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>114</v>
       </c>
@@ -2904,8 +3000,9 @@
       <c r="F118" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G118" s="3"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>115</v>
       </c>
@@ -2918,8 +3015,9 @@
       <c r="F119" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G119" s="3"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>116</v>
       </c>
@@ -2932,8 +3030,9 @@
       <c r="F120" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G120" s="3"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>117</v>
       </c>
@@ -2946,8 +3045,9 @@
       <c r="F121" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G121" s="3"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>118</v>
       </c>
@@ -2960,8 +3060,9 @@
       <c r="F122" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G122" s="3"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>119</v>
       </c>
@@ -2974,8 +3075,9 @@
       <c r="F123" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G123" s="3"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>120</v>
       </c>
@@ -2988,8 +3090,9 @@
       <c r="F124" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>121</v>
       </c>
@@ -3002,8 +3105,9 @@
       <c r="F125" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>122</v>
       </c>
@@ -3016,8 +3120,9 @@
       <c r="F126" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G126" s="3"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
         <v>123</v>
       </c>
@@ -3031,7 +3136,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
         <v>124</v>
       </c>
@@ -3045,7 +3150,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
         <v>125</v>
       </c>
@@ -3059,7 +3164,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
         <v>126</v>
       </c>
@@ -3073,7 +3178,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
         <v>127</v>
       </c>
@@ -3087,7 +3192,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
         <v>128</v>
       </c>
@@ -3101,7 +3206,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>129</v>
       </c>
@@ -3114,11 +3219,11 @@
       <c r="F133" t="s">
         <v>187</v>
       </c>
-      <c r="H133" t="s">
+      <c r="I133" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>130</v>
       </c>
@@ -3132,7 +3237,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>131</v>
       </c>
@@ -3146,7 +3251,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>132</v>
       </c>
@@ -3160,7 +3265,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
         <v>133</v>
       </c>
@@ -3174,7 +3279,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
         <v>134</v>
       </c>
@@ -3188,7 +3293,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
         <v>135</v>
       </c>
@@ -3202,7 +3307,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
         <v>136</v>
       </c>
@@ -3216,7 +3321,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>137</v>
       </c>
@@ -3229,11 +3334,11 @@
       <c r="F141" t="s">
         <v>217</v>
       </c>
-      <c r="H141" t="s">
+      <c r="I141" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>138</v>
       </c>
@@ -3246,11 +3351,11 @@
       <c r="F142" t="s">
         <v>190</v>
       </c>
-      <c r="H142" t="s">
+      <c r="I142" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>139</v>
       </c>
@@ -3263,11 +3368,11 @@
       <c r="F143" t="s">
         <v>190</v>
       </c>
-      <c r="H143" t="s">
+      <c r="I143" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>140</v>
       </c>
@@ -3281,7 +3386,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>141</v>
       </c>
@@ -3295,7 +3400,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
         <v>142</v>
       </c>
@@ -3308,11 +3413,11 @@
       <c r="F146" t="s">
         <v>178</v>
       </c>
-      <c r="H146" t="s">
+      <c r="I146" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
         <v>143</v>
       </c>
@@ -3326,7 +3431,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
         <v>144</v>
       </c>
@@ -3340,7 +3445,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
         <v>145</v>
       </c>
@@ -3354,7 +3459,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
         <v>146</v>
       </c>
@@ -3368,7 +3473,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>147</v>
       </c>
@@ -3382,7 +3487,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
         <v>148</v>
       </c>
@@ -3396,7 +3501,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
         <v>149</v>
       </c>
@@ -3410,7 +3515,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>150</v>
       </c>
@@ -3424,7 +3529,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
         <v>151</v>
       </c>
@@ -3437,14 +3542,14 @@
       <c r="F155" t="s">
         <v>223</v>
       </c>
-      <c r="H155" t="s">
+      <c r="I155" t="s">
         <v>221</v>
       </c>
-      <c r="I155" t="s">
+      <c r="J155" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>152</v>
       </c>
@@ -3458,7 +3563,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>228</v>
       </c>
@@ -3469,7 +3574,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>231</v>
       </c>
@@ -3479,19 +3584,19 @@
       <c r="F158" t="s">
         <v>233</v>
       </c>
-      <c r="H158" t="s">
+      <c r="I158" t="s">
         <v>235</v>
       </c>
-      <c r="I158" t="s">
+      <c r="J158" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>237</v>
       </c>
@@ -3501,11 +3606,11 @@
       <c r="E160" t="s">
         <v>238</v>
       </c>
-      <c r="G160" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H160" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>239</v>
       </c>
@@ -3517,11 +3622,11 @@
       <c r="E161" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G161" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H161" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>240</v>
       </c>
@@ -3533,11 +3638,11 @@
       <c r="E162" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H162" t="s">
+      <c r="I162" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>242</v>
       </c>
@@ -3549,11 +3654,11 @@
       <c r="E163" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H163" t="s">
+      <c r="I163" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>243</v>
       </c>
@@ -3565,18 +3670,18 @@
       <c r="E164" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H164" t="s">
+      <c r="I164" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>244</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G165" t="s">
+      <c r="H165" t="s">
         <v>155</v>
       </c>
     </row>
